--- a/data/trans_camb/P4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P4_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,24</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,19</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-6,07</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 16,06</t>
+          <t>-15,96; 19,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 9,01</t>
+          <t>-21,2; 11,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 13,06</t>
+          <t>-17,91; 12,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 30,8</t>
+          <t>-28,81; 2,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 5,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 8,08</t>
+          <t>-12,59; 12,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 19,6</t>
+          <t>-13,74; 10,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 9,13</t>
+          <t>-13,31; 8,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 4,65</t>
+          <t>-15,38; 11,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 7,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 22,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 12,48</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-12,24; 7,23</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-11,61; 7,81</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-17,31; 3,89</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-7,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>-38,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-2,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-20,29%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 81,23</t>
+          <t>-47,51; 96,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 45,8</t>
+          <t>-52,71; 61,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 59,79</t>
+          <t>-47,05; 67,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,42; 159,8</t>
+          <t>-71,01; 15,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 39,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 21,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 30,03</t>
+          <t>-31,92; 47,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 76,77</t>
+          <t>-32,82; 40,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 36,67</t>
+          <t>-31,84; 35,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 18,67</t>
+          <t>-39,45; 45,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 32,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 92,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-30,36; 51,07</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-33,43; 30,46</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-30,58; 32,41</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-47,65; 15,74</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,87</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 8,95</t>
+          <t>-9,31; 9,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 2,18</t>
+          <t>-10,0; 6,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 4,8</t>
+          <t>-7,35; 8,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 20,19</t>
+          <t>-10,61; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 2,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,26</t>
+          <t>-7,57; 6,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 24,66</t>
+          <t>-3,17; 9,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 4,47</t>
+          <t>-7,28; 5,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 3,1</t>
+          <t>-6,65; 7,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 20,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 5,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 6,48</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 5,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 4,82</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,54%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 39,81</t>
+          <t>-33,87; 49,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 9,64</t>
+          <t>-35,77; 35,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 21,65</t>
+          <t>-27,14; 50,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,72; 87,65</t>
+          <t>-36,63; 32,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 12,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 24,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 9,31</t>
+          <t>-28,29; 31,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,02; 103,65</t>
+          <t>-11,7; 52,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 19,34</t>
+          <t>-26,35; 28,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 12,94</t>
+          <t>-25,35; 40,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 7,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>41,64; 84,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-21,37; 30,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-17,23; 32,43</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,63; 27,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-24,41; 24,25</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 6,46</t>
+          <t>-7,07; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,83</t>
+          <t>-6,34; 8,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 8,64</t>
+          <t>-5,11; 10,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 21,48</t>
+          <t>-4,54; 11,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 6,58</t>
+          <t>-7,99; 7,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 15,4</t>
+          <t>-7,35; 6,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,31</t>
+          <t>-7,0; 7,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,32</t>
+          <t>-9,76; 5,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 15,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 6,53</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 5,66</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 6,95</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 6,42</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>47,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 41,59</t>
+          <t>-32,09; 70,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 30,02</t>
+          <t>-28,08; 67,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 52,67</t>
+          <t>-22,89; 77,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,2; 123,89</t>
+          <t>-22,15; 85,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 44,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 35,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 36,73</t>
+          <t>-29,57; 39,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 81,41</t>
+          <t>-26,76; 36,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 29,69</t>
+          <t>-24,67; 38,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 24,6</t>
+          <t>-36,24; 31,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 33,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,14; 80,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,94; 36,96</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; 33,04</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-14,1; 41,52</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; 36,16</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,16</t>
+          <t>-4,81; 7,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 1,97</t>
+          <t>-8,96; 3,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,53</t>
+          <t>-8,71; 4,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,65</t>
+          <t>-6,5; 4,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,79</t>
+          <t>-7,85; 4,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,83</t>
+          <t>-5,21; 9,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,19; 18,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 4,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 1,83</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 3,36</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>-10,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>-8,8%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-11,53%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 28,02</t>
+          <t>-19,27; 31,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 9,36</t>
+          <t>-34,68; 17,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 21,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>43,63; 96,29</t>
+          <t>-34,25; 19,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 12,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 16,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 11,08</t>
+          <t>-23,32; 17,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,61; 79,55</t>
+          <t>-28,16; 16,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 14,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 7,96</t>
+          <t>-19,01; 37,92</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 12,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>46,96; 78,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-17,04; 17,97</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-26,81; 8,17</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-22,02; 14,62</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 4,99</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 2,15</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 4,38</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 1,76</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 2,69</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 4,12</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 3,08</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 3,12</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 2,79</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 1,81</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,5</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 1,04</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-10,05%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-14,43; 23,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-22,73; 11,06</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 20,25</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-25,59; 8,27</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 10,92</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-10,78; 17,66</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-14,16; 13,21</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-16,74; 13,03</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 12,06</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 8,04</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 10,81</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-17,31; 4,39</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
